--- a/ml_all/output/nn00.xlsx
+++ b/ml_all/output/nn00.xlsx
@@ -423,70 +423,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>78</v>
+        <v>2931</v>
       </c>
       <c r="B1" t="n">
-        <v>13161</v>
+        <v>10411</v>
       </c>
       <c r="C1" t="n">
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="D1" t="n">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="E1" t="n">
-        <v>1499</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>64</v>
+        <v>2092</v>
       </c>
       <c r="B2" t="n">
-        <v>10082</v>
+        <v>9270</v>
       </c>
       <c r="C2" t="n">
-        <v>490</v>
+        <v>1026</v>
       </c>
       <c r="D2" t="n">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="E2" t="n">
-        <v>4029</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>39</v>
+        <v>1063</v>
       </c>
       <c r="B3" t="n">
-        <v>4823</v>
+        <v>5008</v>
       </c>
       <c r="C3" t="n">
-        <v>1752</v>
+        <v>1654</v>
       </c>
       <c r="D3" t="n">
-        <v>403</v>
+        <v>906</v>
       </c>
       <c r="E3" t="n">
-        <v>8042</v>
+        <v>6428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="B4" t="n">
-        <v>1056</v>
+        <v>1327</v>
       </c>
       <c r="C4" t="n">
-        <v>766</v>
+        <v>451</v>
       </c>
       <c r="D4" t="n">
-        <v>1109</v>
+        <v>3974</v>
       </c>
       <c r="E4" t="n">
-        <v>12100</v>
+        <v>9112</v>
       </c>
     </row>
     <row r="5">
@@ -497,98 +497,98 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="E5" t="n">
-        <v>15059</v>
+        <v>14143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13</v>
+        <v>927</v>
       </c>
       <c r="B7" t="n">
-        <v>7617</v>
+        <v>7591</v>
       </c>
       <c r="C7" t="n">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
-        <v>1735</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7</v>
+        <v>1018</v>
       </c>
       <c r="B8" t="n">
-        <v>5855</v>
+        <v>6413</v>
       </c>
       <c r="C8" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D8" t="n">
-        <v>159</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
-        <v>2665</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>76</v>
+        <v>708</v>
       </c>
       <c r="B9" t="n">
-        <v>2980</v>
+        <v>3491</v>
       </c>
       <c r="C9" t="n">
-        <v>807</v>
+        <v>1446</v>
       </c>
       <c r="D9" t="n">
-        <v>706</v>
+        <v>784</v>
       </c>
       <c r="E9" t="n">
-        <v>4971</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B10" t="n">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="C10" t="n">
-        <v>276</v>
+        <v>807</v>
       </c>
       <c r="D10" t="n">
-        <v>1219</v>
+        <v>2225</v>
       </c>
       <c r="E10" t="n">
-        <v>7917</v>
+        <v>6195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="B11" t="n">
-        <v>4817</v>
+        <v>3444</v>
       </c>
       <c r="C11" t="n">
-        <v>310</v>
+        <v>1146</v>
       </c>
       <c r="D11" t="n">
-        <v>594</v>
+        <v>1578</v>
       </c>
       <c r="E11" t="n">
-        <v>3819</v>
+        <v>2028</v>
       </c>
     </row>
   </sheetData>

--- a/ml_all/output/nn00.xlsx
+++ b/ml_all/output/nn00.xlsx
@@ -423,70 +423,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>2931</v>
+        <v>13023</v>
       </c>
       <c r="B1" t="n">
-        <v>10411</v>
+        <v>1492</v>
       </c>
       <c r="C1" t="n">
-        <v>274</v>
+        <v>59</v>
       </c>
       <c r="D1" t="n">
-        <v>89</v>
+        <v>475</v>
       </c>
       <c r="E1" t="n">
-        <v>1354</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2092</v>
+        <v>8531</v>
       </c>
       <c r="B2" t="n">
-        <v>9270</v>
+        <v>2327</v>
       </c>
       <c r="C2" t="n">
-        <v>1026</v>
+        <v>244</v>
       </c>
       <c r="D2" t="n">
-        <v>191</v>
+        <v>3849</v>
       </c>
       <c r="E2" t="n">
-        <v>2480</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1063</v>
+        <v>4518</v>
       </c>
       <c r="B3" t="n">
-        <v>5008</v>
+        <v>907</v>
       </c>
       <c r="C3" t="n">
-        <v>1654</v>
+        <v>543</v>
       </c>
       <c r="D3" t="n">
-        <v>906</v>
+        <v>9048</v>
       </c>
       <c r="E3" t="n">
-        <v>6428</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>195</v>
+        <v>660</v>
       </c>
       <c r="B4" t="n">
-        <v>1327</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>451</v>
+        <v>230</v>
       </c>
       <c r="D4" t="n">
-        <v>3974</v>
+        <v>13818</v>
       </c>
       <c r="E4" t="n">
-        <v>9112</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
@@ -497,98 +497,98 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>814</v>
+        <v>15059</v>
       </c>
       <c r="E5" t="n">
-        <v>14143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>927</v>
+        <v>5622</v>
       </c>
       <c r="B7" t="n">
-        <v>7591</v>
+        <v>3352</v>
       </c>
       <c r="C7" t="n">
-        <v>159</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>29</v>
+        <v>555</v>
       </c>
       <c r="E7" t="n">
-        <v>834</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1018</v>
+        <v>5286</v>
       </c>
       <c r="B8" t="n">
-        <v>6413</v>
+        <v>1732</v>
       </c>
       <c r="C8" t="n">
-        <v>853</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>2418</v>
       </c>
       <c r="E8" t="n">
-        <v>1189</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>708</v>
+        <v>3608</v>
       </c>
       <c r="B9" t="n">
-        <v>3491</v>
+        <v>345</v>
       </c>
       <c r="C9" t="n">
-        <v>1446</v>
+        <v>176</v>
       </c>
       <c r="D9" t="n">
-        <v>784</v>
+        <v>5347</v>
       </c>
       <c r="E9" t="n">
-        <v>3111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>54</v>
+        <v>343</v>
       </c>
       <c r="B10" t="n">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>807</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>2225</v>
+        <v>9184</v>
       </c>
       <c r="E10" t="n">
-        <v>6195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1344</v>
+        <v>4737</v>
       </c>
       <c r="B11" t="n">
-        <v>3444</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1146</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1578</v>
+        <v>4803</v>
       </c>
       <c r="E11" t="n">
-        <v>2028</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ml_all/output/nn00.xlsx
+++ b/ml_all/output/nn00.xlsx
@@ -423,70 +423,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>13023</v>
+        <v>953</v>
       </c>
       <c r="B1" t="n">
-        <v>1492</v>
+        <v>13700</v>
       </c>
       <c r="C1" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D1" t="n">
-        <v>475</v>
+        <v>132</v>
       </c>
       <c r="E1" t="n">
-        <v>10</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8531</v>
+        <v>939</v>
       </c>
       <c r="B2" t="n">
-        <v>2327</v>
+        <v>12952</v>
       </c>
       <c r="C2" t="n">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D2" t="n">
-        <v>3849</v>
+        <v>286</v>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4518</v>
+        <v>610</v>
       </c>
       <c r="B3" t="n">
-        <v>907</v>
+        <v>9771</v>
       </c>
       <c r="C3" t="n">
-        <v>543</v>
+        <v>455</v>
       </c>
       <c r="D3" t="n">
-        <v>9048</v>
+        <v>235</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>3988</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>660</v>
+        <v>341</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>3935</v>
       </c>
       <c r="C4" t="n">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="D4" t="n">
-        <v>13818</v>
+        <v>987</v>
       </c>
       <c r="E4" t="n">
-        <v>334</v>
+        <v>9557</v>
       </c>
     </row>
     <row r="5">
@@ -494,101 +494,101 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1127</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>15059</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>13932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5622</v>
+        <v>43</v>
       </c>
       <c r="B7" t="n">
-        <v>3352</v>
+        <v>8422</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>555</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5286</v>
+        <v>706</v>
       </c>
       <c r="B8" t="n">
-        <v>1732</v>
+        <v>7949</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="D8" t="n">
-        <v>2418</v>
+        <v>96</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3608</v>
+        <v>490</v>
       </c>
       <c r="B9" t="n">
-        <v>345</v>
+        <v>5896</v>
       </c>
       <c r="C9" t="n">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="D9" t="n">
-        <v>5347</v>
+        <v>612</v>
       </c>
       <c r="E9" t="n">
-        <v>64</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>343</v>
+        <v>73</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2318</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D10" t="n">
-        <v>9184</v>
+        <v>1122</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4737</v>
+        <v>1066</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>4937</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>4803</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3536</v>
       </c>
     </row>
   </sheetData>
